--- a/biology/Virologie/Christian_Drosten/Christian_Drosten.xlsx
+++ b/biology/Virologie/Christian_Drosten/Christian_Drosten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Drosten (en allemand : /ˈkʁɪs.ti̯an ˈdʁɔs.tn/[1] Écouter, né en 1972 à Lingen) est un virologue allemand. « codécouvreur de l'ADN du virus du SRAS en 2003 »[2], ses compétences ont été mises à contribution pour la gestion de la pandémie de Covid-19 en Allemagne, où il jouit d'une couverture médiatique importante au début de 2020[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Drosten (en allemand : /ˈkʁɪs.ti̯an ˈdʁɔs.tn/ Écouter, né en 1972 à Lingen) est un virologue allemand. « codécouvreur de l'ADN du virus du SRAS en 2003 », ses compétences ont été mises à contribution pour la gestion de la pandémie de Covid-19 en Allemagne, où il jouit d'une couverture médiatique importante au début de 2020.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Drosten est élevé dans une ferme située à Gross Hesepe, dans l'arrondissement du Pays de l'Ems[4]. Il obtient son diplôme de médecine en 2000 à l'Université Goethe de Francfort.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Drosten est élevé dans une ferme située à Gross Hesepe, dans l'arrondissement du Pays de l'Ems. Il obtient son diplôme de médecine en 2000 à l'Université Goethe de Francfort.
 Sa thèse de doctorat (parue en 2001) à l'institut de Transfusion et d'Immuno-hématologie du Département du Don du Sang de la Croix-Rouge Allemande sur "L'établissement d'un test par réaction en chaîne par polymérase de criblage à haut-débit pour les virus immuno-déficients et les hépatites B par prise de sang" a eu la mention summa cum laude.
 </t>
         </is>
@@ -543,11 +557,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, Christian Drosten travaille à l'Institut Bernhard-Nocht de médecine tropicale de Hambourg. 
 En 2007, il est nommé professeur et directeur de l'Institut de virologie de la Faculté de médecine de l'Université de Bonn.
-En 2020, il occupe le poste de directeur de l'Institut de virologie de l'hôpital universitaire de la Charité de Berlin[4].
+En 2020, il occupe le poste de directeur de l'Institut de virologie de l'hôpital universitaire de la Charité de Berlin.
 </t>
         </is>
       </c>
@@ -576,14 +592,51 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, il co-découvre avec Stephan Günther le virus de SARS-CoV-1 (SRAS)[5]. Ils mettent à disposition de l'OMS le protocole de dépistage[6]. 
-Pandémie de Covid-19
-Pour le coronavirus SARS-CoV-2, apparu en décembre 2019, l'équipe de recherche menée par Drosten développe avec la société de biotechnologie berlinoise, TIB Molbiol Syntheselabor GmbH, un test PCR, rendu librement disponible mi-janvier 2020, recommandé par l'OMS, et qui sert désormais de test dans le monde entier pour « détecter » le virus de la Covid-19.
-Pendant toute la pandémie, Christian Drosten, sollicité par la chancelière Angela Merkel[7], conseille le gouvernement allemand, et fournit des informations à destination du grand public. Dès le mois d'avril 2020, il estime qu'une deuxième vague pourrait arriver en Europe à partir du mois d'octobre si les gestes barrières ne sont pas respectés. Fin avril, il révèle à The Guardian faire l’objet de menaces de mort[8].
-En juin 2021, il émet l'hypothèse que l'origine du SARS-CoV-2 se trouve dans les élevages de chiens viverrins en Chine[9].
-Depuis septembre 2020, il intervient, en alternance avec Sandra Ciesek, dans le podcast de la NDR ,Coronavirus-Update , où ils expliquent les contextes scientifiques de la pandémie de COVID-19[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, il co-découvre avec Stephan Günther le virus de SARS-CoV-1 (SRAS). Ils mettent à disposition de l'OMS le protocole de dépistage. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christian_Drosten</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Drosten</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Recherches</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pandémie de Covid-19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le coronavirus SARS-CoV-2, apparu en décembre 2019, l'équipe de recherche menée par Drosten développe avec la société de biotechnologie berlinoise, TIB Molbiol Syntheselabor GmbH, un test PCR, rendu librement disponible mi-janvier 2020, recommandé par l'OMS, et qui sert désormais de test dans le monde entier pour « détecter » le virus de la Covid-19.
+Pendant toute la pandémie, Christian Drosten, sollicité par la chancelière Angela Merkel, conseille le gouvernement allemand, et fournit des informations à destination du grand public. Dès le mois d'avril 2020, il estime qu'une deuxième vague pourrait arriver en Europe à partir du mois d'octobre si les gestes barrières ne sont pas respectés. Fin avril, il révèle à The Guardian faire l’objet de menaces de mort.
+En juin 2021, il émet l'hypothèse que l'origine du SARS-CoV-2 se trouve dans les élevages de chiens viverrins en Chine.
+Depuis septembre 2020, il intervient, en alternance avec Sandra Ciesek, dans le podcast de la NDR ,Coronavirus-Update , où ils expliquent les contextes scientifiques de la pandémie de COVID-19.
 </t>
         </is>
       </c>
